--- a/all_student.xlsx
+++ b/all_student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/monash-hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{18EBE946-E984-AB4C-9F5E-13D44D8E3FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7DAA0B1-21BA-8049-9BCC-0F5D8DAC8E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{33B41CC6-5E66-794C-ADAF-4B896F855C2F}"/>
   </bookViews>
@@ -580,11 +580,11 @@
       </c>
       <c r="C2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(82,88)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(82,90)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(72,82)</f>
@@ -592,15 +592,15 @@
       </c>
       <c r="F2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(65,78)</f>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(60,72)</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(75,81)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>55</v>
@@ -619,23 +619,23 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" ca="1" si="1" xml:space="preserve"> RANDBETWEEN(82,90)</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" ca="1" si="2" xml:space="preserve"> RANDBETWEEN(72,82)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F13" ca="1" si="3" xml:space="preserve"> RANDBETWEEN(65,78)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" ca="1" si="4" xml:space="preserve"> RANDBETWEEN(60,72)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H13" ca="1" si="5" xml:space="preserve"> RANDBETWEEN(75,81)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>64</v>
@@ -650,27 +650,27 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>70</v>
@@ -689,23 +689,23 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>72</v>
@@ -720,19 +720,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
@@ -755,31 +755,31 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I10" ca="1" si="6" xml:space="preserve"> RANDBETWEEN(78,87)</f>
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -799,23 +799,23 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
@@ -835,15 +835,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
@@ -863,31 +863,31 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -899,27 +899,27 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <v>87</v>
@@ -934,27 +934,27 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>88</v>
@@ -969,27 +969,27 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>91</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I51" ca="1" si="7">RANDBETWEEN(65,85)</f>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2185,23 +2185,23 @@
       </c>
       <c r="B2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(82,88)</f>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(82,90)</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(72,82)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(65,78)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(60,72)</f>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(75,81)</f>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(82,88)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C13" ca="1" si="1" xml:space="preserve"> RANDBETWEEN(82,90)</f>
@@ -2225,19 +2225,19 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" ca="1" si="2" xml:space="preserve"> RANDBETWEEN(72,82)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" ca="1" si="3" xml:space="preserve"> RANDBETWEEN(65,78)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F13" ca="1" si="4" xml:space="preserve"> RANDBETWEEN(60,72)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" ca="1" si="5" xml:space="preserve"> RANDBETWEEN(75,81)</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>64</v>
@@ -2249,27 +2249,27 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>70</v>
@@ -2281,27 +2281,27 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>72</v>
@@ -2317,23 +2317,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -2345,31 +2345,31 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H10" ca="1" si="6" xml:space="preserve"> RANDBETWEEN(78,87)</f>
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2378,31 +2378,31 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2415,19 +2415,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="5"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2444,31 +2444,31 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2477,27 +2477,27 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>87</v>
@@ -2509,27 +2509,27 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>88</v>
@@ -2549,19 +2549,19 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>91</v>
